--- a/Sanity_TestCases_Alert_Criteria.xlsx
+++ b/Sanity_TestCases_Alert_Criteria.xlsx
@@ -11,7 +11,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="96" uniqueCount="54">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="96" uniqueCount="58">
   <si>
     <t>Test Case Description</t>
   </si>
@@ -100,7 +100,7 @@
 </t>
   </si>
   <si>
-    <t>Only Alert when temperature Changes in Any Direction by +/- 0.5 to Freezing</t>
+    <t>Only Alert when temperature Changes in Any Direction by more than +/- 0.5 to Freezing</t>
   </si>
   <si>
     <t xml:space="preserve">mutation {
@@ -140,6 +140,9 @@
 </t>
   </si>
   <si>
+    <t>Only Alert when temperature Changes in Falling Direction by more than +/- 0.5 to Freezing</t>
+  </si>
+  <si>
     <t xml:space="preserve">mutation {
   addConsumer(alertCriteria: 
               [
@@ -288,7 +291,7 @@
 </t>
   </si>
   <si>
-    <t>Only Alert when temperature Changes in Any Direction by +/- 0.5 to Boiling</t>
+    <t>Only Alert when temperature Changes in Any Direction by more than +/- 0.5 to Boiling</t>
   </si>
   <si>
     <t xml:space="preserve">mutation {
@@ -325,6 +328,9 @@
 </t>
   </si>
   <si>
+    <t>Only Alert when temperature Changes in Falling Direction by more than +/- 0.5 to Boiling</t>
+  </si>
+  <si>
     <t xml:space="preserve">mutation {
   addConsumer(alertCriteria: 
               [
@@ -510,6 +516,9 @@
 </t>
   </si>
   <si>
+    <t>Only Alert when temperature Changes in Falling Direction by more than +/- 0.5 to an Arbitrary Temperature</t>
+  </si>
+  <si>
     <t xml:space="preserve">mutation {
   addConsumer(alertCriteria: 
               [
@@ -525,6 +534,9 @@
   }
 }
 </t>
+  </si>
+  <si>
+    <t>Only Alert when temperature Changes in Any Direction by more than +/- 0.5 to an Arbitrary Temperature</t>
   </si>
   <si>
     <t xml:space="preserve">mutation {
@@ -891,7 +903,7 @@
     <col customWidth="1" min="2" max="2" width="2.88"/>
     <col customWidth="1" min="3" max="3" width="15.88"/>
     <col customWidth="1" min="4" max="4" width="19.75"/>
-    <col customWidth="1" min="5" max="5" width="12.38"/>
+    <col customWidth="1" min="5" max="5" width="8.0"/>
     <col customWidth="1" min="6" max="6" width="29.88"/>
   </cols>
   <sheetData>
@@ -1017,7 +1029,7 @@
     </row>
     <row r="7">
       <c r="A7" s="3" t="s">
-        <v>17</v>
+        <v>19</v>
       </c>
       <c r="B7" s="3">
         <v>5.0</v>
@@ -1032,12 +1044,12 @@
         <v>13</v>
       </c>
       <c r="F7" s="4" t="s">
-        <v>19</v>
+        <v>20</v>
       </c>
     </row>
     <row r="8">
       <c r="A8" s="3" t="s">
-        <v>17</v>
+        <v>15</v>
       </c>
       <c r="B8" s="3">
         <v>6.0</v>
@@ -1052,7 +1064,7 @@
         <v>7</v>
       </c>
       <c r="F8" s="4" t="s">
-        <v>20</v>
+        <v>21</v>
       </c>
     </row>
     <row r="9">
@@ -1072,12 +1084,12 @@
         <v>10</v>
       </c>
       <c r="F9" s="4" t="s">
-        <v>21</v>
+        <v>22</v>
       </c>
     </row>
     <row r="10">
       <c r="A10" s="3" t="s">
-        <v>17</v>
+        <v>19</v>
       </c>
       <c r="B10" s="3">
         <v>8.0</v>
@@ -1092,12 +1104,12 @@
         <v>13</v>
       </c>
       <c r="F10" s="4" t="s">
-        <v>22</v>
+        <v>23</v>
       </c>
     </row>
     <row r="11">
       <c r="A11" s="3" t="s">
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="B11" s="3">
         <v>9.0</v>
@@ -1112,12 +1124,12 @@
         <v>7</v>
       </c>
       <c r="F11" s="4" t="s">
-        <v>24</v>
+        <v>25</v>
       </c>
     </row>
     <row r="12">
       <c r="A12" s="3" t="s">
-        <v>25</v>
+        <v>26</v>
       </c>
       <c r="B12" s="3">
         <v>10.0</v>
@@ -1132,12 +1144,12 @@
         <v>7</v>
       </c>
       <c r="F12" s="4" t="s">
-        <v>26</v>
+        <v>27</v>
       </c>
     </row>
     <row r="13">
       <c r="A13" s="3" t="s">
-        <v>27</v>
+        <v>28</v>
       </c>
       <c r="B13" s="3">
         <v>11.0</v>
@@ -1152,12 +1164,12 @@
         <v>10</v>
       </c>
       <c r="F13" s="4" t="s">
-        <v>28</v>
+        <v>29</v>
       </c>
     </row>
     <row r="14">
       <c r="A14" s="3" t="s">
-        <v>29</v>
+        <v>30</v>
       </c>
       <c r="B14" s="3">
         <v>12.0</v>
@@ -1172,12 +1184,12 @@
         <v>13</v>
       </c>
       <c r="F14" s="4" t="s">
-        <v>30</v>
+        <v>31</v>
       </c>
     </row>
     <row r="15">
       <c r="A15" s="3" t="s">
-        <v>31</v>
+        <v>32</v>
       </c>
       <c r="B15" s="3">
         <v>13.0</v>
@@ -1192,12 +1204,12 @@
         <v>7</v>
       </c>
       <c r="F15" s="4" t="s">
-        <v>32</v>
+        <v>33</v>
       </c>
     </row>
     <row r="16">
       <c r="A16" s="3" t="s">
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="B16" s="3">
         <v>14.0</v>
@@ -1212,12 +1224,12 @@
         <v>10</v>
       </c>
       <c r="F16" s="4" t="s">
-        <v>33</v>
+        <v>34</v>
       </c>
     </row>
     <row r="17">
       <c r="A17" s="3" t="s">
-        <v>23</v>
+        <v>35</v>
       </c>
       <c r="B17" s="3">
         <v>15.0</v>
@@ -1232,12 +1244,12 @@
         <v>13</v>
       </c>
       <c r="F17" s="4" t="s">
-        <v>34</v>
+        <v>36</v>
       </c>
     </row>
     <row r="18">
       <c r="A18" s="3" t="s">
-        <v>23</v>
+        <v>32</v>
       </c>
       <c r="B18" s="3">
         <v>16.0</v>
@@ -1252,12 +1264,12 @@
         <v>7</v>
       </c>
       <c r="F18" s="4" t="s">
-        <v>35</v>
+        <v>37</v>
       </c>
     </row>
     <row r="19">
       <c r="A19" s="3" t="s">
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="B19" s="3">
         <v>17.0</v>
@@ -1272,12 +1284,12 @@
         <v>10</v>
       </c>
       <c r="F19" s="4" t="s">
-        <v>36</v>
+        <v>38</v>
       </c>
     </row>
     <row r="20">
       <c r="A20" s="3" t="s">
-        <v>23</v>
+        <v>35</v>
       </c>
       <c r="B20" s="3">
         <v>18.0</v>
@@ -1292,12 +1304,12 @@
         <v>13</v>
       </c>
       <c r="F20" s="4" t="s">
-        <v>37</v>
+        <v>39</v>
       </c>
     </row>
     <row r="21">
       <c r="A21" s="3" t="s">
-        <v>23</v>
+        <v>32</v>
       </c>
       <c r="B21" s="3">
         <v>19.0</v>
@@ -1312,12 +1324,12 @@
         <v>7</v>
       </c>
       <c r="F21" s="4" t="s">
-        <v>38</v>
+        <v>40</v>
       </c>
     </row>
     <row r="22">
       <c r="A22" s="3" t="s">
-        <v>39</v>
+        <v>41</v>
       </c>
       <c r="B22" s="3">
         <v>20.0</v>
@@ -1332,12 +1344,12 @@
         <v>7</v>
       </c>
       <c r="F22" s="4" t="s">
-        <v>40</v>
+        <v>42</v>
       </c>
     </row>
     <row r="23">
       <c r="A23" s="3" t="s">
-        <v>41</v>
+        <v>43</v>
       </c>
       <c r="B23" s="3">
         <v>21.0</v>
@@ -1352,12 +1364,12 @@
         <v>10</v>
       </c>
       <c r="F23" s="4" t="s">
-        <v>42</v>
+        <v>44</v>
       </c>
     </row>
     <row r="24">
       <c r="A24" s="3" t="s">
-        <v>43</v>
+        <v>45</v>
       </c>
       <c r="B24" s="3">
         <v>22.0</v>
@@ -1372,12 +1384,12 @@
         <v>13</v>
       </c>
       <c r="F24" s="4" t="s">
-        <v>44</v>
+        <v>46</v>
       </c>
     </row>
     <row r="25">
       <c r="A25" s="3" t="s">
-        <v>45</v>
+        <v>47</v>
       </c>
       <c r="B25" s="3">
         <v>23.0</v>
@@ -1392,12 +1404,12 @@
         <v>7</v>
       </c>
       <c r="F25" s="4" t="s">
-        <v>46</v>
+        <v>48</v>
       </c>
     </row>
     <row r="26">
       <c r="A26" s="3" t="s">
-        <v>47</v>
+        <v>49</v>
       </c>
       <c r="B26" s="3">
         <v>24.0</v>
@@ -1412,12 +1424,12 @@
         <v>10</v>
       </c>
       <c r="F26" s="4" t="s">
-        <v>48</v>
+        <v>50</v>
       </c>
     </row>
     <row r="27">
       <c r="A27" s="3" t="s">
-        <v>47</v>
+        <v>51</v>
       </c>
       <c r="B27" s="3">
         <v>25.0</v>
@@ -1432,12 +1444,12 @@
         <v>13</v>
       </c>
       <c r="F27" s="4" t="s">
-        <v>49</v>
+        <v>52</v>
       </c>
     </row>
     <row r="28">
       <c r="A28" s="3" t="s">
-        <v>47</v>
+        <v>53</v>
       </c>
       <c r="B28" s="3">
         <v>26.0</v>
@@ -1452,12 +1464,12 @@
         <v>7</v>
       </c>
       <c r="F28" s="4" t="s">
-        <v>50</v>
+        <v>54</v>
       </c>
     </row>
     <row r="29">
       <c r="A29" s="3" t="s">
-        <v>47</v>
+        <v>49</v>
       </c>
       <c r="B29" s="3">
         <v>27.0</v>
@@ -1472,12 +1484,12 @@
         <v>10</v>
       </c>
       <c r="F29" s="4" t="s">
-        <v>51</v>
+        <v>55</v>
       </c>
     </row>
     <row r="30">
       <c r="A30" s="3" t="s">
-        <v>47</v>
+        <v>51</v>
       </c>
       <c r="B30" s="3">
         <v>28.0</v>
@@ -1492,12 +1504,12 @@
         <v>13</v>
       </c>
       <c r="F30" s="4" t="s">
-        <v>52</v>
+        <v>56</v>
       </c>
     </row>
     <row r="31">
       <c r="A31" s="3" t="s">
-        <v>47</v>
+        <v>53</v>
       </c>
       <c r="B31" s="3">
         <v>29.0</v>
@@ -1512,7 +1524,7 @@
         <v>7</v>
       </c>
       <c r="F31" s="4" t="s">
-        <v>53</v>
+        <v>57</v>
       </c>
     </row>
     <row r="32">
